--- a/modelCatalog/instances/Variables/PIHM_Input.xlsx
+++ b/modelCatalog/instances/Variables/PIHM_Input.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deborahkhider/Documents/GitHub/Mint-ModelCatalog-Ontology/modelCatalog/instances/Variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgarijo\Documents\GitHub\Mint-ModelCatalog-Ontology\modelCatalog\instances\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638ACB7-D259-5A42-BB1A-C15D56B3A51E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{84ADEB7A-A875-BA46-8DDE-5A7740FB38B5}"/>
+    <workbookView xWindow="9324" yWindow="564" windowWidth="28044" windowHeight="17436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +472,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,12 +519,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -564,18 +557,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -891,20 +883,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819720C0-FBE3-E64F-AAA2-05B4C365E7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -933,7 +925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -974,7 +966,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1007,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1046,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1083,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1096,7 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1"/>
@@ -1132,7 +1124,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1137,7 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="1"/>
@@ -1173,7 +1165,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1186,11 +1178,11 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>141</v>
       </c>
       <c r="H8" s="1"/>
@@ -1214,7 +1206,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1247,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1294,7 +1286,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1325,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1338,7 @@
       <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1"/>
@@ -1374,7 +1366,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1379,7 @@
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="1"/>
@@ -1415,7 +1407,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1420,7 @@
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="1"/>
@@ -1456,7 +1448,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +1489,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1538,7 +1530,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1579,7 +1571,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1620,7 +1612,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1651,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1672,11 +1664,11 @@
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="11" t="s">
         <v>143</v>
       </c>
       <c r="H20" s="1"/>
@@ -1700,7 +1692,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1713,7 +1705,7 @@
       <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="1"/>
@@ -1741,7 +1733,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1782,7 +1774,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1823,7 +1815,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1862,7 +1854,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -1901,7 +1893,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1940,7 +1932,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1981,7 +1973,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +2012,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2033,7 +2025,7 @@
       <c r="D29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>145</v>
       </c>
       <c r="F29" s="1"/>
@@ -2061,7 +2053,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -2100,7 +2092,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2139,7 +2131,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2178,7 +2170,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2217,7 +2209,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
@@ -2258,7 +2250,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -2297,7 +2289,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -2335,7 +2327,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -2374,7 +2366,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
@@ -2415,7 +2407,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -2428,7 +2420,7 @@
       <c r="D39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>145</v>
       </c>
       <c r="F39" s="1"/>
@@ -2456,7 +2448,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2495,7 +2487,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2536,7 +2528,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2575,7 +2567,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
@@ -2616,7 +2608,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -2657,7 +2649,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2698,7 +2690,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
@@ -2737,7 +2729,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
@@ -2778,7 +2770,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
@@ -2817,7 +2809,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
@@ -2858,24 +2850,24 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:27" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H50" s="5"/>
